--- a/biology/Botanique/Degeneriaceae/Degeneriaceae.xlsx
+++ b/biology/Botanique/Degeneriaceae/Degeneriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Degeneriaceae regroupe des plantes angiospermes archaïques ne comportant qu'un seul genre, Degeneria avec une ou deux espèces.
 Degeneria vitiensis sont des grands arbres à feuilles entières originaires des îles Fidji.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Degeneria donné en hommage au botaniste américain Otto Degener (en) (1899-1988) qui découvrit la plante en 1942 dans les îles Fidji[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Degeneria donné en hommage au botaniste américain Otto Degener (en) (1899-1988) qui découvrit la plante en 1942 dans les îles Fidji.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 avr. 2010)[2], NCBI  (13 avr. 2010)[3], Angiosperm Phylogeny Website                        (20 mai 2010)[4] et DELTA Angio           (13 avr. 2010)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 avr. 2010), NCBI  (13 avr. 2010), Angiosperm Phylogeny Website                        (20 mai 2010) et DELTA Angio           (13 avr. 2010) :
 genre Degeneria I.W.Bailey &amp; A.C.Sm. (1942)</t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 avr. 2010)[2] et NCBI  (13 avr. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 avr. 2010) et NCBI  (13 avr. 2010) :
 genre Degeneria I.W.Bailey &amp; A.C.Sm. (1942)
 Degeneria roseiflora  John M.Mill. (1988)
 Degeneria vitiensis  L.W.Bailey &amp; A.C.Sm. (1942)</t>
